--- a/LF/TAS/Benin/Apr 2021/bj_lf_retas1_3_fts_result_202104.xlsx
+++ b/LF/TAS/Benin/Apr 2021/bj_lf_retas1_3_fts_result_202104.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\TAS\Benin\Apr 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9A62EF-693B-49BB-83F0-280654BA3EF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0708D883-C25F-490B-BE83-B8589006D40B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -537,12 +537,6 @@
     <t>Le chiffre doit être supérieur à zéro</t>
   </si>
   <si>
-    <t>Please record the following unique ID code for the respondent on a separate list and on each diagnostic test(s) administered</t>
-  </si>
-  <si>
-    <t>Veuiller enregistrer le code d'identification unique suivant pour le répondant sur une liste séparée et sur chaque test de diagnostic administré, y compris les tests FTS</t>
-  </si>
-  <si>
     <t>d_id_sequence</t>
   </si>
   <si>
@@ -594,10 +588,16 @@
     <t>Invalide inclut les erreurs de test et le sang insuffisant</t>
   </si>
   <si>
-    <t>bj_lf_retas1_3_fts_result_202104</t>
-  </si>
-  <si>
-    <t>3. Benin - Re TAS1 FL Formulaire FTS Résultat (Avril 2021)</t>
+    <t>Veuillez enregistrer le code d’identification suivant pour le répondant sur une liste séparée et sur chaque test de diagnostic utilisé</t>
+  </si>
+  <si>
+    <t>Please record the following respondent identification code on a separate list and on each diagnostic test used</t>
+  </si>
+  <si>
+    <t>3. Benin - Re TAS1 FL Formulaire FTS Résultat (Avril 2021) V2</t>
+  </si>
+  <si>
+    <t>bj_lf_retas1_3_fts_result_202104_v2</t>
   </si>
 </sst>
 </file>
@@ -1140,30 +1140,30 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.609375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.21875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.25" style="7" customWidth="1"/>
     <col min="5" max="5" width="47.5" style="9" customWidth="1"/>
-    <col min="6" max="6" width="47.38671875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="12.609375" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.5" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.5" style="9" customWidth="1"/>
-    <col min="11" max="11" width="49.38671875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="12.609375" customWidth="1"/>
-    <col min="13" max="13" width="9.71875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.38671875" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" customWidth="1"/>
-    <col min="16" max="16" width="36.609375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.375" customWidth="1"/>
+    <col min="15" max="15" width="13.875" customWidth="1"/>
+    <col min="16" max="16" width="36.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -1213,10 +1213,10 @@
         <v>13</v>
       </c>
       <c r="Q1" s="40" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>23</v>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="O2" s="19"/>
       <c r="P2" s="14"/>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="19"/>
@@ -1282,7 +1282,7 @@
       <c r="O3" s="24"/>
       <c r="P3" s="14"/>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>26</v>
       </c>
@@ -1310,7 +1310,7 @@
       <c r="O4" s="24"/>
       <c r="P4" s="14"/>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="19"/>
@@ -1338,7 +1338,7 @@
       <c r="O5" s="24"/>
       <c r="P5" s="14"/>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>137</v>
@@ -1368,12 +1368,12 @@
       <c r="O6" s="24"/>
       <c r="P6" s="14"/>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C7" s="39" t="s">
         <v>156</v>
@@ -1396,53 +1396,53 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="39" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F8" s="39"/>
       <c r="H8" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M8" s="39" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="D9" s="39"/>
       <c r="E9" s="39" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="F9" s="39"/>
       <c r="I9" s="26"/>
       <c r="J9" s="27"/>
       <c r="L9" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M9" s="39" t="s">
         <v>89</v>
@@ -1451,7 +1451,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>26</v>
       </c>
@@ -1479,7 +1479,7 @@
       <c r="O10" s="19"/>
       <c r="P10" s="14"/>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>71</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>60</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -1511,7 +1511,7 @@
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>83</v>
       </c>
@@ -1541,7 +1541,7 @@
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>32</v>
       </c>
@@ -1563,7 +1563,7 @@
       <c r="I13" s="31"/>
       <c r="J13" s="27"/>
       <c r="K13" s="30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="24" t="s">
@@ -1573,7 +1573,7 @@
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>45</v>
       </c>
@@ -1599,7 +1599,7 @@
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
     </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>36</v>
       </c>
@@ -1627,7 +1627,7 @@
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>26</v>
       </c>
@@ -1657,7 +1657,7 @@
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>71</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="O17" s="32"/>
       <c r="P17" s="32"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>83</v>
       </c>
@@ -1723,7 +1723,7 @@
       <c r="O18" s="32"/>
       <c r="P18" s="32"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>32</v>
       </c>
@@ -1745,7 +1745,7 @@
       <c r="I19" s="34"/>
       <c r="J19" s="35"/>
       <c r="K19" s="30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L19" s="32"/>
       <c r="M19" s="24" t="s">
@@ -1755,7 +1755,7 @@
       <c r="O19" s="32"/>
       <c r="P19" s="32"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>45</v>
       </c>
@@ -1781,7 +1781,7 @@
       <c r="O20" s="32"/>
       <c r="P20" s="32"/>
     </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:16" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>36</v>
       </c>
@@ -1811,7 +1811,7 @@
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
     </row>
-    <row r="22" spans="1:16" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:16" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>26</v>
       </c>
@@ -1841,7 +1841,7 @@
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
     </row>
-    <row r="23" spans="1:16" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>71</v>
       </c>
@@ -1875,7 +1875,7 @@
       <c r="O23" s="32"/>
       <c r="P23" s="32"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>83</v>
       </c>
@@ -1907,7 +1907,7 @@
       <c r="O24" s="32"/>
       <c r="P24" s="32"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>32</v>
       </c>
@@ -1927,7 +1927,7 @@
       <c r="I25" s="34"/>
       <c r="J25" s="35"/>
       <c r="K25" s="30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L25" s="32"/>
       <c r="M25" s="24" t="s">
@@ -1937,7 +1937,7 @@
       <c r="O25" s="32"/>
       <c r="P25" s="32"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="32"/>
       <c r="C26" s="33"/>
@@ -1955,7 +1955,7 @@
       <c r="O26" s="32"/>
       <c r="P26" s="32"/>
     </row>
-    <row r="27" spans="1:16" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>45</v>
       </c>
@@ -1981,7 +1981,7 @@
       <c r="O27" s="32"/>
       <c r="P27" s="32"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>45</v>
       </c>
@@ -2007,7 +2007,7 @@
       <c r="O28" s="32"/>
       <c r="P28" s="32"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>36</v>
       </c>
@@ -2035,7 +2035,7 @@
       <c r="O29" s="32"/>
       <c r="P29" s="32"/>
     </row>
-    <row r="30" spans="1:16" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>26</v>
       </c>
@@ -2063,7 +2063,7 @@
       <c r="O30" s="32"/>
       <c r="P30" s="32"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>32</v>
       </c>
@@ -2089,7 +2089,7 @@
       <c r="O31" s="32"/>
       <c r="P31" s="32"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>33</v>
       </c>
@@ -2111,7 +2111,7 @@
       <c r="O32" s="32"/>
       <c r="P32" s="32"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>34</v>
       </c>
@@ -2148,15 +2148,15 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.38671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.71875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -2354,17 +2354,17 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2378,12 +2378,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
         <v>181</v>
-      </c>
-      <c r="B2" t="s">
-        <v>180</v>
       </c>
       <c r="C2">
         <v>20210412</v>

--- a/LF/TAS/Benin/Apr 2021/bj_lf_retas1_3_fts_result_202104.xlsx
+++ b/LF/TAS/Benin/Apr 2021/bj_lf_retas1_3_fts_result_202104.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\TAS\Benin\Apr 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0708D883-C25F-490B-BE83-B8589006D40B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3B947D-FFEB-4295-BF5F-623C33F3059F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -594,10 +594,10 @@
     <t>Please record the following respondent identification code on a separate list and on each diagnostic test used</t>
   </si>
   <si>
-    <t>3. Benin - Re TAS1 FL Formulaire FTS Résultat (Avril 2021) V2</t>
-  </si>
-  <si>
-    <t>bj_lf_retas1_3_fts_result_202104_v2</t>
+    <t>bj_lf_retas1_3_fts_result_202104_v3</t>
+  </si>
+  <si>
+    <t>3. Benin - Re TAS1 FL Formulaire FTS Résultat (Avril 2021) V3</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2353,14 +2353,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2380,10 +2380,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" t="s">
         <v>180</v>
-      </c>
-      <c r="B2" t="s">
-        <v>181</v>
       </c>
       <c r="C2">
         <v>20210412</v>
